--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,8 +550,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,8 +597,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -778,8 +832,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -819,8 +879,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,8 +926,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -901,8 +973,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -983,8 +1067,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1024,8 +1114,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1065,8 +1161,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1106,8 +1208,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1147,8 +1255,14 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1188,8 +1302,14 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1270,8 +1396,14 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.717678339651741</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7248379021083338</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1982513629079392</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.373147488526484</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000801747501455427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.432064573354992</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.438307784563989</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.125517820494167</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.481102342104947</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.6254773152087978</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1708378030698441</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.171630576163309</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008109830242299238</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.318949021086326</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.102799211519766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.06210651290327</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.338951423720772</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5660616740465514</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1543438650225966</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.051398747066273</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008167706195571449</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.25222551555062</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.901501103679493</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.025952130372275</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.281694123207217</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.5421926193396587</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1476952412563719</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.003138825688097</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008191611028437931</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.225647356611546</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.820485517728315</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.011853192743772</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.272224043507492</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.5382483605596917</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1465953035578167</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9951658163377459</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008195600436909931</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.221269020497701</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.807089653746516</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.00954860993086</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.338176656194463</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.5657384486680996</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1542539199344759</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.050745097667573</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008168027257472801</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.251864687058415</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.900404599158719</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.025759500025742</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.635391318496033</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.6902115780125655</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1887212410697572</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.302845220438556</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008049092782085797</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.392448564104726</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.321540819268051</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.103035293558037</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.248602841953073</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.9498864442371371</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2596196894222942</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.83259279943077</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007823814842475695</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.693609537742816</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.19339185701341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.279967758466938</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.726922479299276</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.154989148609957</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3147329821364337</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.256064968850836</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007660998391677844</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.936592098892106</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.876082251931791</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.430847078820904</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.953085769308984</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.252732116258869</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.340733770839023</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.459762407552347</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007586926631681923</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.05353506525141</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.199661299934917</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.505497197533799</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3.040217638765341</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.290519564911278</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3507405745968413</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.538868524496507</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007558816893940627</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.098911674829139</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.324457444332495</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.53478056929805</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3.021381436085846</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.28234448167467</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3485777909022261</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.521737028713559</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007564874582749145</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.089087337924482</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.297472655617867</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.528426039061344</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.960222690308683</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.255824523813715</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3415536396813224</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.466228554831105</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007584615617381784</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.057245230565826</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.209880480971378</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.507885057328366</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.922963462352698</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.23968559034887</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.337272982462423</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.432497285522999</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007596697752176823</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.037888957400909</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.156535412755204</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.495440219928213</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.712335540382355</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.148701809945351</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3130546947647304</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.243006081094492</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007665834195069394</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.929092515154593</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.855229467352444</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.426101770348936</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.585486163576434</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.094112506278464</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2984535741597085</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.129837930709527</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007708206625864486</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.864103457405264</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.673979783617938</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.385203947653622</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.513314993171207</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.063122717072815</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.290141008558308</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.065760541122671</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007732581720081043</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.827314852985296</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.570928080307226</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.362236299236343</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.489007551927784</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.052696535792791</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2873404648982358</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.044228854968168</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007740836967087952</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.814955700644418</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.536231546580154</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.354551140771491</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.598906103601792</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.099880445328665</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.2999988452573348</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.141777431986426</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007703696031982066</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.870959303750993</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.693147487206602</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.389499075410669</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.978143818796639</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.263591852607533</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3436121966470864</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.482475824302369</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007578819364972211</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.066566848171362</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.235543503737574</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.513889560550126</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3.234830128434396</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.375183052059811</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3730700006625085</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.716867113681019</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007496817072701417</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.200881400505679</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4.603463709542325</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.601193116373622</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3.096926200954044</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.315152188260356</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.357250236990609</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.590546846839288</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000754064150555162</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.128537639570297</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.405719283060478</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.553990715639685</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2.592836611906591</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.097271541717873</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2992999753501664</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.136376544414787</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007705735223415356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.867857998787969</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.684478211363398</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.387555561431412</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2.078585521977288</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.8775161855387239</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2399901216009965</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.684315824824907</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000788411030808299</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.608826136943591</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.951279279125345</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.228874334768165</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.717678339651741</v>
+        <v>0.8021528410757526</v>
       </c>
       <c r="C2">
-        <v>0.7248379021083338</v>
+        <v>0.3247639823953534</v>
       </c>
       <c r="D2">
-        <v>0.1982513629079392</v>
+        <v>0.07749062595625844</v>
       </c>
       <c r="E2">
-        <v>1.373147488526484</v>
+        <v>0.4006024613124026</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000801747501455427</v>
+        <v>0.002516170420962426</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.432064573354992</v>
+        <v>1.458936549976372</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.438307784563989</v>
+        <v>1.123967387923102</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.125517820494167</v>
+        <v>2.686895260429367</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.481102342104947</v>
+        <v>0.745775388559764</v>
       </c>
       <c r="C3">
-        <v>0.6254773152087978</v>
+        <v>0.300523170275568</v>
       </c>
       <c r="D3">
-        <v>0.1708378030698441</v>
+        <v>0.07042177239738123</v>
       </c>
       <c r="E3">
-        <v>1.171630576163309</v>
+        <v>0.3493985801447366</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008109830242299238</v>
+        <v>0.002521514152998849</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.318949021086326</v>
+        <v>1.432968830758327</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.102799211519766</v>
+        <v>1.043445558980864</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.06210651290327</v>
+        <v>2.668886182958744</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.338951423720772</v>
+        <v>0.7116992444903758</v>
       </c>
       <c r="C4">
-        <v>0.5660616740465514</v>
+        <v>0.2858436430923348</v>
       </c>
       <c r="D4">
-        <v>0.1543438650225966</v>
+        <v>0.06612386050227315</v>
       </c>
       <c r="E4">
-        <v>1.051398747066273</v>
+        <v>0.3180899512190081</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008167706195571449</v>
+        <v>0.00252496189147506</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.25222551555062</v>
+        <v>1.417633071181058</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.901501103679493</v>
+        <v>0.9947458915364393</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.025952130372275</v>
+        <v>2.658427361560399</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.281694123207217</v>
+        <v>0.6979472630845009</v>
       </c>
       <c r="C5">
-        <v>0.5421926193396587</v>
+        <v>0.2799121326031297</v>
       </c>
       <c r="D5">
-        <v>0.1476952412563719</v>
+        <v>0.06438291122198336</v>
       </c>
       <c r="E5">
-        <v>1.003138825688097</v>
+        <v>0.3053615898142397</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008191611028437931</v>
+        <v>0.00252640894206258</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.225647356611546</v>
+        <v>1.411535621965285</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.820485517728315</v>
+        <v>0.9750844006591421</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.011853192743772</v>
+        <v>2.654314803977826</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.272224043507492</v>
+        <v>0.695671828818746</v>
       </c>
       <c r="C6">
-        <v>0.5382483605596917</v>
+        <v>0.2789302350974765</v>
       </c>
       <c r="D6">
-        <v>0.1465953035578167</v>
+        <v>0.0640944561019694</v>
       </c>
       <c r="E6">
-        <v>0.9951658163377459</v>
+        <v>0.3032497977124962</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008195600436909931</v>
+        <v>0.002526651769152006</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.221269020497701</v>
+        <v>1.410532295870766</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.807089653746516</v>
+        <v>0.9718306721302952</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.00954860993086</v>
+        <v>2.653640914737366</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.338176656194463</v>
+        <v>0.7115132384561775</v>
       </c>
       <c r="C7">
-        <v>0.5657384486680996</v>
+        <v>0.2857634452952595</v>
       </c>
       <c r="D7">
-        <v>0.1542539199344759</v>
+        <v>0.06610033922621028</v>
       </c>
       <c r="E7">
-        <v>1.050745097667573</v>
+        <v>0.3179181735163468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008168027257472801</v>
+        <v>0.002524981236476415</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.251864687058415</v>
+        <v>1.417550224784407</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.900404599158719</v>
+        <v>0.9944799877612525</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.025759500025742</v>
+        <v>2.658371294336362</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.635391318496033</v>
+        <v>0.7826009692428215</v>
       </c>
       <c r="C8">
-        <v>0.6902115780125655</v>
+        <v>0.3163627745676649</v>
       </c>
       <c r="D8">
-        <v>0.1887212410697572</v>
+        <v>0.07504437821725674</v>
       </c>
       <c r="E8">
-        <v>1.302845220438556</v>
+        <v>0.3829185620466404</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008049092782085797</v>
+        <v>0.002517978444928071</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.392448564104726</v>
+        <v>1.449855951926082</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.321540819268051</v>
+        <v>1.096048216685688</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.103035293558037</v>
+        <v>2.680560782017068</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.248602841953073</v>
+        <v>0.9263601947637881</v>
       </c>
       <c r="C9">
-        <v>0.9498864442371371</v>
+        <v>0.3780337664736635</v>
       </c>
       <c r="D9">
-        <v>0.2596196894222942</v>
+        <v>0.09292889349720213</v>
       </c>
       <c r="E9">
-        <v>1.83259279943077</v>
+        <v>0.5115512107042548</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007823814842475695</v>
+        <v>0.002505561096816278</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.693609537742816</v>
+        <v>1.518086721255273</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.19339185701341</v>
+        <v>1.301220550716835</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.279967758466938</v>
+        <v>2.728878193036962</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.726922479299276</v>
+        <v>1.034749760012119</v>
       </c>
       <c r="C10">
-        <v>1.154989148609957</v>
+        <v>0.4244247881944148</v>
       </c>
       <c r="D10">
-        <v>0.3147329821364337</v>
+        <v>0.1062929405859592</v>
       </c>
       <c r="E10">
-        <v>2.256064968850836</v>
+        <v>0.6069583753349548</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007660998391677844</v>
+        <v>0.002497229518074286</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.936592098892106</v>
+        <v>1.571268115616391</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.876082251931791</v>
+        <v>1.455797281054458</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.430847078820904</v>
+        <v>2.767383569048434</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.953085769308984</v>
+        <v>1.084686187323769</v>
       </c>
       <c r="C11">
-        <v>1.252732116258869</v>
+        <v>0.4457788168837737</v>
       </c>
       <c r="D11">
-        <v>0.340733770839023</v>
+        <v>0.1124244035545274</v>
       </c>
       <c r="E11">
-        <v>2.459762407552347</v>
+        <v>0.6505992320608982</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007586926631681923</v>
+        <v>0.002493608917598072</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.05353506525141</v>
+        <v>1.596141952250477</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.199661299934917</v>
+        <v>1.526992028065422</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.505497197533799</v>
+        <v>2.785570892736473</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.040217638765341</v>
+        <v>1.103688229172462</v>
       </c>
       <c r="C12">
-        <v>1.290519564911278</v>
+        <v>0.4539021805090329</v>
       </c>
       <c r="D12">
-        <v>0.3507405745968413</v>
+        <v>0.1147539478097599</v>
       </c>
       <c r="E12">
-        <v>2.538868524496507</v>
+        <v>0.6671626671061546</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007558816893940627</v>
+        <v>0.002492262091206826</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.098911674829139</v>
+        <v>1.60566032459316</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.324457444332495</v>
+        <v>1.554080776492242</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.53478056929805</v>
+        <v>2.792555795016682</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.021381436085846</v>
+        <v>1.099591671608948</v>
       </c>
       <c r="C13">
-        <v>1.28234448167467</v>
+        <v>0.4521510040712542</v>
       </c>
       <c r="D13">
-        <v>0.3485777909022261</v>
+        <v>0.1142518934039458</v>
       </c>
       <c r="E13">
-        <v>2.521737028713559</v>
+        <v>0.6635937127959721</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007564874582749145</v>
+        <v>0.002492551079775109</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.089087337924482</v>
+        <v>1.60360594172279</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.297472655617867</v>
+        <v>1.548240955448819</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.528426039061344</v>
+        <v>2.791047103193279</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.960222690308683</v>
+        <v>1.086247639126952</v>
       </c>
       <c r="C14">
-        <v>1.255824523813715</v>
+        <v>0.4464463822508833</v>
       </c>
       <c r="D14">
-        <v>0.3415536396813224</v>
+        <v>0.1126159012282102</v>
       </c>
       <c r="E14">
-        <v>2.466228554831105</v>
+        <v>0.6519611443542743</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007584615617381784</v>
+        <v>0.002493497629023836</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.057245230565826</v>
+        <v>1.59692303952329</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.209880480971378</v>
+        <v>1.529218037662076</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.507885057328366</v>
+        <v>2.786143578338226</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.922963462352698</v>
+        <v>1.078086091783746</v>
       </c>
       <c r="C15">
-        <v>1.23968559034887</v>
+        <v>0.4429569934717961</v>
       </c>
       <c r="D15">
-        <v>0.337272982462423</v>
+        <v>0.1116148165982338</v>
       </c>
       <c r="E15">
-        <v>2.432497285522999</v>
+        <v>0.6448408494007225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007596697752176823</v>
+        <v>0.002494080566801053</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.037888957400909</v>
+        <v>1.59284252284526</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.156535412755204</v>
+        <v>1.517582812361866</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.495440219928213</v>
+        <v>2.783152796529293</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.712335540382355</v>
+        <v>1.031499106649619</v>
       </c>
       <c r="C16">
-        <v>1.148701809945351</v>
+        <v>0.4230343810677368</v>
       </c>
       <c r="D16">
-        <v>0.3130546947647304</v>
+        <v>0.1058933004173781</v>
       </c>
       <c r="E16">
-        <v>2.243006081094492</v>
+        <v>0.6041114312647693</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007665834195069394</v>
+        <v>0.002497469529936661</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.929092515154593</v>
+        <v>1.569656365570751</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.855229467352444</v>
+        <v>1.451162416693876</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.426101770348936</v>
+        <v>2.766208595159128</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.585486163576434</v>
+        <v>1.003081908614774</v>
       </c>
       <c r="C17">
-        <v>1.094112506278464</v>
+        <v>0.4108773958965344</v>
       </c>
       <c r="D17">
-        <v>0.2984535741597085</v>
+        <v>0.1023968195966063</v>
       </c>
       <c r="E17">
-        <v>2.129837930709527</v>
+        <v>0.5791888417401054</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007708206625864486</v>
+        <v>0.002499591846374641</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.864103457405264</v>
+        <v>1.555607775262814</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.673979783617938</v>
+        <v>1.410642204007331</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.385203947653622</v>
+        <v>2.755986637241847</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.513314993171207</v>
+        <v>0.9867962336857659</v>
       </c>
       <c r="C18">
-        <v>1.063122717072815</v>
+        <v>0.4039085368183919</v>
       </c>
       <c r="D18">
-        <v>0.290141008558308</v>
+        <v>0.1003906270591415</v>
       </c>
       <c r="E18">
-        <v>2.065760541122671</v>
+        <v>0.5648763947901045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007732581720081043</v>
+        <v>0.00250082850782116</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.827314852985296</v>
+        <v>1.547591456000418</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.570928080307226</v>
+        <v>1.387418431740173</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.362236299236343</v>
+        <v>2.750170321662125</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.489007551927784</v>
+        <v>0.9812922916437969</v>
       </c>
       <c r="C19">
-        <v>1.052696535792791</v>
+        <v>0.4015530088676655</v>
       </c>
       <c r="D19">
-        <v>0.2873404648982358</v>
+        <v>0.09971219864566194</v>
       </c>
       <c r="E19">
-        <v>2.044228854968168</v>
+        <v>0.5600341934665494</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007740836967087952</v>
+        <v>0.002501249966310954</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.814955700644418</v>
+        <v>1.544888233544384</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.536231546580154</v>
+        <v>1.379569328522791</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.354551140771491</v>
+        <v>2.748211813732297</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.598906103601792</v>
+        <v>1.006100834420977</v>
       </c>
       <c r="C20">
-        <v>1.099880445328665</v>
+        <v>0.41216908636369</v>
       </c>
       <c r="D20">
-        <v>0.2999988452573348</v>
+        <v>0.1027685183256466</v>
       </c>
       <c r="E20">
-        <v>2.141777431986426</v>
+        <v>0.5818395565338363</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007703696031982066</v>
+        <v>0.002499364271484175</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.870959303750993</v>
+        <v>1.557096633186987</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.693147487206602</v>
+        <v>1.414947103976544</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.389499075410669</v>
+        <v>2.757068244046337</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.978143818796639</v>
+        <v>1.090164589027211</v>
       </c>
       <c r="C21">
-        <v>1.263591852607533</v>
+        <v>0.4481209539384281</v>
       </c>
       <c r="D21">
-        <v>0.3436121966470864</v>
+        <v>0.1130962213945566</v>
       </c>
       <c r="E21">
-        <v>2.482475824302369</v>
+        <v>0.6553768663014097</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007578819364972211</v>
+        <v>0.002493218948386727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.066566848171362</v>
+        <v>1.598883268118044</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.235543503737574</v>
+        <v>1.534802010945953</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.513889560550126</v>
+        <v>2.787581199167619</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.234830128434396</v>
+        <v>1.145643336454043</v>
       </c>
       <c r="C22">
-        <v>1.375183052059811</v>
+        <v>0.4718340639672078</v>
       </c>
       <c r="D22">
-        <v>0.3730700006625085</v>
+        <v>0.1198909053422312</v>
       </c>
       <c r="E22">
-        <v>2.716867113681019</v>
+        <v>0.7036583441282858</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007496817072701417</v>
+        <v>0.002489343705199061</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.200881400505679</v>
+        <v>1.626771986070878</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.603463709542325</v>
+        <v>1.613886423899885</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.601193116373622</v>
+        <v>2.80809358573191</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.096926200954044</v>
+        <v>1.115983471076618</v>
       </c>
       <c r="C23">
-        <v>1.315152188260356</v>
+        <v>0.459157776208599</v>
       </c>
       <c r="D23">
-        <v>0.357250236990609</v>
+        <v>0.1162602756288464</v>
       </c>
       <c r="E23">
-        <v>2.590546846839288</v>
+        <v>0.6778683778954644</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000754064150555162</v>
+        <v>0.002491399137480417</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.128537639570297</v>
+        <v>1.611833891159804</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.405719283060478</v>
+        <v>1.571607831853669</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.553990715639685</v>
+        <v>2.797093123949452</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.592836611906591</v>
+        <v>1.004735816998789</v>
       </c>
       <c r="C24">
-        <v>1.097271541717873</v>
+        <v>0.4115850497839233</v>
       </c>
       <c r="D24">
-        <v>0.2992999753501664</v>
+        <v>0.1026004609460784</v>
       </c>
       <c r="E24">
-        <v>2.136376544414787</v>
+        <v>0.5806411191430669</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007705735223415356</v>
+        <v>0.002499467106668403</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.867857998787969</v>
+        <v>1.556423332470658</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.684478211363398</v>
+        <v>1.413000635147512</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.387555561431412</v>
+        <v>2.756579061497575</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.078585521977288</v>
+        <v>0.8869914874198344</v>
       </c>
       <c r="C25">
-        <v>0.8775161855387239</v>
+        <v>0.3611650545599048</v>
       </c>
       <c r="D25">
-        <v>0.2399901216009965</v>
+        <v>0.08805227969220653</v>
       </c>
       <c r="E25">
-        <v>1.684315824824907</v>
+        <v>0.4766083478537979</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000788411030808299</v>
+        <v>0.002508780590780314</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.608826136943591</v>
+        <v>1.499098173342077</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.951279279125345</v>
+        <v>1.245055476837763</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.228874334768165</v>
+        <v>2.715284767403546</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8021528410757526</v>
+        <v>1.717678339651854</v>
       </c>
       <c r="C2">
-        <v>0.3247639823953534</v>
+        <v>0.7248379021081348</v>
       </c>
       <c r="D2">
-        <v>0.07749062595625844</v>
+        <v>0.1982513629078113</v>
       </c>
       <c r="E2">
-        <v>0.4006024613124026</v>
+        <v>1.373147488526484</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002516170420962426</v>
+        <v>0.000801747501513608</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.458936549976372</v>
+        <v>1.432064573354964</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.123967387923102</v>
+        <v>2.438307784563932</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.686895260429367</v>
+        <v>2.125517820494167</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.745775388559764</v>
+        <v>1.481102342105061</v>
       </c>
       <c r="C3">
-        <v>0.300523170275568</v>
+        <v>0.6254773152091389</v>
       </c>
       <c r="D3">
-        <v>0.07042177239738123</v>
+        <v>0.170837803069702</v>
       </c>
       <c r="E3">
-        <v>0.3493985801447366</v>
+        <v>1.171630576163253</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002521514152998849</v>
+        <v>0.0008109830242844357</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.432968830758327</v>
+        <v>1.318949021086354</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.043445558980864</v>
+        <v>2.102799211519766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.668886182958744</v>
+        <v>2.06210651290327</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7116992444903758</v>
+        <v>1.338951423720971</v>
       </c>
       <c r="C4">
-        <v>0.2858436430923348</v>
+        <v>0.5660616740466082</v>
       </c>
       <c r="D4">
-        <v>0.06612386050227315</v>
+        <v>0.154343865022696</v>
       </c>
       <c r="E4">
-        <v>0.3180899512190081</v>
+        <v>1.051398747066258</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00252496189147506</v>
+        <v>0.0008167706195548943</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.417633071181058</v>
+        <v>1.252225515550634</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9947458915364393</v>
+        <v>1.901501103679607</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.658427361560399</v>
+        <v>2.025952130372261</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6979472630845009</v>
+        <v>1.281694123207245</v>
       </c>
       <c r="C5">
-        <v>0.2799121326031297</v>
+        <v>0.5421926193395734</v>
       </c>
       <c r="D5">
-        <v>0.06438291122198336</v>
+        <v>0.1476952412563719</v>
       </c>
       <c r="E5">
-        <v>0.3053615898142397</v>
+        <v>1.003138825688112</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00252640894206258</v>
+        <v>0.00081916110284346</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.411535621965285</v>
+        <v>1.225647356611532</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9750844006591421</v>
+        <v>1.820485517728315</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.654314803977826</v>
+        <v>2.0118531927438</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.695671828818746</v>
+        <v>1.272224043507634</v>
       </c>
       <c r="C6">
-        <v>0.2789302350974765</v>
+        <v>0.5382483605596633</v>
       </c>
       <c r="D6">
-        <v>0.0640944561019694</v>
+        <v>0.1465953035576746</v>
       </c>
       <c r="E6">
-        <v>0.3032497977124962</v>
+        <v>0.9951658163377033</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002526651769152006</v>
+        <v>0.000819560043687324</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.410532295870766</v>
+        <v>1.221269020497687</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9718306721302952</v>
+        <v>1.807089653746459</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.653640914737366</v>
+        <v>2.009548609930874</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7115132384561775</v>
+        <v>1.338176656194463</v>
       </c>
       <c r="C7">
-        <v>0.2857634452952595</v>
+        <v>0.5657384486677586</v>
       </c>
       <c r="D7">
-        <v>0.06610033922621028</v>
+        <v>0.1542539199345754</v>
       </c>
       <c r="E7">
-        <v>0.3179181735163468</v>
+        <v>1.050745097667559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002524981236476415</v>
+        <v>0.0008168027256352155</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.417550224784407</v>
+        <v>1.251864687058386</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9944799877612525</v>
+        <v>1.900404599158861</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.658371294336362</v>
+        <v>2.025759500025686</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7826009692428215</v>
+        <v>1.635391318496062</v>
       </c>
       <c r="C8">
-        <v>0.3163627745676649</v>
+        <v>0.6902115780119118</v>
       </c>
       <c r="D8">
-        <v>0.07504437821725674</v>
+        <v>0.1887212410698424</v>
       </c>
       <c r="E8">
-        <v>0.3829185620466404</v>
+        <v>1.302845220438599</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002517978444928071</v>
+        <v>0.0008049092782048355</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.449855951926082</v>
+        <v>1.39244856410474</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.096048216685688</v>
+        <v>2.321540819267994</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.680560782017068</v>
+        <v>2.103035293558065</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9263601947637881</v>
+        <v>2.248602841952902</v>
       </c>
       <c r="C9">
-        <v>0.3780337664736635</v>
+        <v>0.9498864442368813</v>
       </c>
       <c r="D9">
-        <v>0.09292889349720213</v>
+        <v>0.2596196894219531</v>
       </c>
       <c r="E9">
-        <v>0.5115512107042548</v>
+        <v>1.832592799430728</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002505561096816278</v>
+        <v>0.0007823814841801342</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.518086721255273</v>
+        <v>1.69360953774283</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.301220550716835</v>
+        <v>3.193391857013353</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.728878193036962</v>
+        <v>2.279967758466967</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.034749760012119</v>
+        <v>2.726922479299219</v>
       </c>
       <c r="C10">
-        <v>0.4244247881944148</v>
+        <v>1.154989148610412</v>
       </c>
       <c r="D10">
-        <v>0.1062929405859592</v>
+        <v>0.314732982136448</v>
       </c>
       <c r="E10">
-        <v>0.6069583753349548</v>
+        <v>2.256064968850794</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002497229518074286</v>
+        <v>0.000766099839280443</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.571268115616391</v>
+        <v>1.936592098892106</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.455797281054458</v>
+        <v>3.876082251931791</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.767383569048434</v>
+        <v>2.430847078820904</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.084686187323769</v>
+        <v>2.953085769308814</v>
       </c>
       <c r="C11">
-        <v>0.4457788168837737</v>
+        <v>1.252732116258699</v>
       </c>
       <c r="D11">
-        <v>0.1124244035545274</v>
+        <v>0.3407337708390088</v>
       </c>
       <c r="E11">
-        <v>0.6505992320608982</v>
+        <v>2.459762407552304</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002493608917598072</v>
+        <v>0.0007586926632419119</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.596141952250477</v>
+        <v>2.053535065251396</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.526992028065422</v>
+        <v>4.199661299934917</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.785570892736473</v>
+        <v>2.505497197533742</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.103688229172462</v>
+        <v>3.040217638765284</v>
       </c>
       <c r="C12">
-        <v>0.4539021805090329</v>
+        <v>1.290519564911563</v>
       </c>
       <c r="D12">
-        <v>0.1147539478097599</v>
+        <v>0.3507405745968128</v>
       </c>
       <c r="E12">
-        <v>0.6671626671061546</v>
+        <v>2.538868524496536</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002492262091206826</v>
+        <v>0.0007558816893909447</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.60566032459316</v>
+        <v>2.098911674829154</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.554080776492242</v>
+        <v>4.324457444332609</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.792555795016682</v>
+        <v>2.53478056929805</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.099591671608948</v>
+        <v>3.021381436086017</v>
       </c>
       <c r="C13">
-        <v>0.4521510040712542</v>
+        <v>1.282344481675182</v>
       </c>
       <c r="D13">
-        <v>0.1142518934039458</v>
+        <v>0.3485777909024392</v>
       </c>
       <c r="E13">
-        <v>0.6635937127959721</v>
+        <v>2.521737028713588</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002492551079775109</v>
+        <v>0.0007564874583303583</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.60360594172279</v>
+        <v>2.089087337924497</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.548240955448819</v>
+        <v>4.297472655617753</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.791047103193279</v>
+        <v>2.528426039061316</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.086247639126952</v>
+        <v>2.960222690308569</v>
       </c>
       <c r="C14">
-        <v>0.4464463822508833</v>
+        <v>1.255824523813715</v>
       </c>
       <c r="D14">
-        <v>0.1126159012282102</v>
+        <v>0.341553639681095</v>
       </c>
       <c r="E14">
-        <v>0.6519611443542743</v>
+        <v>2.466228554831176</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002493497629023836</v>
+        <v>0.0007584615617395633</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.59692303952329</v>
+        <v>2.057245230565826</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.529218037662076</v>
+        <v>4.209880480971265</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.786143578338226</v>
+        <v>2.507885057328309</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.078086091783746</v>
+        <v>2.922963462352584</v>
       </c>
       <c r="C15">
-        <v>0.4429569934717961</v>
+        <v>1.239685590348643</v>
       </c>
       <c r="D15">
-        <v>0.1116148165982338</v>
+        <v>0.337272982461684</v>
       </c>
       <c r="E15">
-        <v>0.6448408494007225</v>
+        <v>2.432497285522984</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002494080566801053</v>
+        <v>0.0007596697752165642</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.59284252284526</v>
+        <v>2.037888957400924</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.517582812361866</v>
+        <v>4.156535412755204</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.783152796529293</v>
+        <v>2.495440219928156</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.031499106649619</v>
+        <v>2.712335540382298</v>
       </c>
       <c r="C16">
-        <v>0.4230343810677368</v>
+        <v>1.148701809945806</v>
       </c>
       <c r="D16">
-        <v>0.1058933004173781</v>
+        <v>0.3130546947648867</v>
       </c>
       <c r="E16">
-        <v>0.6041114312647693</v>
+        <v>2.243006081094521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002497469529936661</v>
+        <v>0.0007665834195075849</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.569656365570751</v>
+        <v>1.929092515154579</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.451162416693876</v>
+        <v>3.855229467352558</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.766208595159128</v>
+        <v>2.426101770348964</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.003081908614774</v>
+        <v>2.58548616357632</v>
       </c>
       <c r="C17">
-        <v>0.4108773958965344</v>
+        <v>1.094112506278975</v>
       </c>
       <c r="D17">
-        <v>0.1023968195966063</v>
+        <v>0.2984535741597085</v>
       </c>
       <c r="E17">
-        <v>0.5791888417401054</v>
+        <v>2.129837930709513</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002499591846374641</v>
+        <v>0.0007708206625173261</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.555607775262814</v>
+        <v>1.864103457405292</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.410642204007331</v>
+        <v>3.673979783617881</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.755986637241847</v>
+        <v>2.38520394765365</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9867962336857659</v>
+        <v>2.513314993171377</v>
       </c>
       <c r="C18">
-        <v>0.4039085368183919</v>
+        <v>1.063122717072588</v>
       </c>
       <c r="D18">
-        <v>0.1003906270591415</v>
+        <v>0.2901410085584786</v>
       </c>
       <c r="E18">
-        <v>0.5648763947901045</v>
+        <v>2.065760541122756</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00250082850782116</v>
+        <v>0.0007732581719450419</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.547591456000418</v>
+        <v>1.827314852985296</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.387418431740173</v>
+        <v>3.570928080307112</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.750170321662125</v>
+        <v>2.3622362992364</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9812922916437969</v>
+        <v>2.4890075519275</v>
       </c>
       <c r="C19">
-        <v>0.4015530088676655</v>
+        <v>1.052696535792563</v>
       </c>
       <c r="D19">
-        <v>0.09971219864566194</v>
+        <v>0.2873404648983637</v>
       </c>
       <c r="E19">
-        <v>0.5600341934665494</v>
+        <v>2.04422885496821</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002501249966310954</v>
+        <v>0.0007740836965852595</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.544888233544384</v>
+        <v>1.814955700644433</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.379569328522791</v>
+        <v>3.536231546580041</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.748211813732297</v>
+        <v>2.354551140771463</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.006100834420977</v>
+        <v>2.598906103601962</v>
       </c>
       <c r="C20">
-        <v>0.41216908636369</v>
+        <v>1.099880445328836</v>
       </c>
       <c r="D20">
-        <v>0.1027685183256466</v>
+        <v>0.2999988452569653</v>
       </c>
       <c r="E20">
-        <v>0.5818395565338363</v>
+        <v>2.141777431986384</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002499364271484175</v>
+        <v>0.0007703696032632656</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.557096633186987</v>
+        <v>1.870959303750993</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.414947103976544</v>
+        <v>3.693147487206488</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.757068244046337</v>
+        <v>2.38949907541064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.090164589027211</v>
+        <v>2.978143818796639</v>
       </c>
       <c r="C21">
-        <v>0.4481209539384281</v>
+        <v>1.263591852606964</v>
       </c>
       <c r="D21">
-        <v>0.1130962213945566</v>
+        <v>0.343612196647527</v>
       </c>
       <c r="E21">
-        <v>0.6553768663014097</v>
+        <v>2.482475824302398</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002493218948386727</v>
+        <v>0.0007578819365566613</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.598883268118044</v>
+        <v>2.066566848171348</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.534802010945953</v>
+        <v>4.23554350373746</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.787581199167619</v>
+        <v>2.513889560550098</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.145643336454043</v>
+        <v>3.234830128434282</v>
       </c>
       <c r="C22">
-        <v>0.4718340639672078</v>
+        <v>1.375183052059583</v>
       </c>
       <c r="D22">
-        <v>0.1198909053422312</v>
+        <v>0.3730700006623522</v>
       </c>
       <c r="E22">
-        <v>0.7036583441282858</v>
+        <v>2.716867113681005</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002489343705199061</v>
+        <v>0.0007496817073991634</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.626771986070878</v>
+        <v>2.200881400505693</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.613886423899885</v>
+        <v>4.603463709542439</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.80809358573191</v>
+        <v>2.601193116373651</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.115983471076618</v>
+        <v>3.09692620095376</v>
       </c>
       <c r="C23">
-        <v>0.459157776208599</v>
+        <v>1.315152188259788</v>
       </c>
       <c r="D23">
-        <v>0.1162602756288464</v>
+        <v>0.3572502369904669</v>
       </c>
       <c r="E23">
-        <v>0.6778683778954644</v>
+        <v>2.590546846839302</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002491399137480417</v>
+        <v>0.000754064150609471</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.611833891159804</v>
+        <v>2.128537639570311</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.571607831853669</v>
+        <v>4.405719283060535</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.797093123949452</v>
+        <v>2.553990715639657</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.004735816998789</v>
+        <v>2.592836611906364</v>
       </c>
       <c r="C24">
-        <v>0.4115850497839233</v>
+        <v>1.097271541717248</v>
       </c>
       <c r="D24">
-        <v>0.1026004609460784</v>
+        <v>0.2992999753502374</v>
       </c>
       <c r="E24">
-        <v>0.5806411191430669</v>
+        <v>2.136376544414773</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002499467106668403</v>
+        <v>0.0007705735222751488</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.556423332470658</v>
+        <v>1.86785799878794</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.413000635147512</v>
+        <v>3.684478211363341</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.756579061497575</v>
+        <v>2.387555561431412</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8869914874198344</v>
+        <v>2.078585521977175</v>
       </c>
       <c r="C25">
-        <v>0.3611650545599048</v>
+        <v>0.8775161855387239</v>
       </c>
       <c r="D25">
-        <v>0.08805227969220653</v>
+        <v>0.2399901216012239</v>
       </c>
       <c r="E25">
-        <v>0.4766083478537979</v>
+        <v>1.684315824824878</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002508780590780314</v>
+        <v>0.0007884110307518763</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.499098173342077</v>
+        <v>1.608826136943591</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.245055476837763</v>
+        <v>2.951279279125345</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.715284767403546</v>
+        <v>2.228874334768221</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.717678339651854</v>
+        <v>3.396419992639267</v>
       </c>
       <c r="C2">
-        <v>0.7248379021081348</v>
+        <v>0.7648404385784602</v>
       </c>
       <c r="D2">
-        <v>0.1982513629078113</v>
+        <v>0.1974542783293742</v>
       </c>
       <c r="E2">
-        <v>1.373147488526484</v>
+        <v>0.04420531461496857</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000801747501513608</v>
+        <v>1.611535551753036</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0002932929804437823</v>
       </c>
       <c r="I2">
-        <v>1.432064573354964</v>
+        <v>0.0008641050443261022</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9590246226714498</v>
       </c>
       <c r="K2">
-        <v>2.438307784563932</v>
+        <v>0.9041480184117674</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.125517820494167</v>
+        <v>0.3789602337275397</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.481102342105061</v>
+        <v>2.955941293028673</v>
       </c>
       <c r="C3">
-        <v>0.6254773152091389</v>
+        <v>0.6660285778181958</v>
       </c>
       <c r="D3">
-        <v>0.170837803069702</v>
+        <v>0.1709925214756112</v>
       </c>
       <c r="E3">
-        <v>1.171630576163253</v>
+        <v>0.03974516820270058</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008109830242844357</v>
+        <v>1.458038707544716</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001310476172792896</v>
       </c>
       <c r="I3">
-        <v>1.318949021086354</v>
+        <v>0.00216045223948802</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.8915030103961783</v>
       </c>
       <c r="K3">
-        <v>2.102799211519766</v>
+        <v>0.8481295749386959</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.06210651290327</v>
+        <v>0.3311981943004838</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.338951423720971</v>
+        <v>2.68593691188363</v>
       </c>
       <c r="C4">
-        <v>0.5660616740466082</v>
+        <v>0.6060347400347155</v>
       </c>
       <c r="D4">
-        <v>0.154343865022696</v>
+        <v>0.1549371171110749</v>
       </c>
       <c r="E4">
-        <v>1.051398747066258</v>
+        <v>0.03704111926865128</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008167706195548943</v>
+        <v>1.36453267638467</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00232994543595022</v>
       </c>
       <c r="I4">
-        <v>1.252225515550634</v>
+        <v>0.003471289089831409</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8505006576760934</v>
       </c>
       <c r="K4">
-        <v>1.901501103679607</v>
+        <v>0.8138981732374333</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.025952130372261</v>
+        <v>0.3020023964405993</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.281694123207245</v>
+        <v>2.575962821729547</v>
       </c>
       <c r="C5">
-        <v>0.5421926193395734</v>
+        <v>0.5825026317131403</v>
       </c>
       <c r="D5">
-        <v>0.1476952412563719</v>
+        <v>0.1484349789120927</v>
       </c>
       <c r="E5">
-        <v>1.003138825688112</v>
+        <v>0.03591571127134241</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00081916110284346</v>
+        <v>1.323757000931295</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002842213092702384</v>
       </c>
       <c r="I5">
-        <v>1.225647356611532</v>
+        <v>0.004205497223730426</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.8324550814679128</v>
       </c>
       <c r="K5">
-        <v>1.820485517728315</v>
+        <v>0.79814504604078</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.0118531927438</v>
+        <v>0.2902045916839882</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.272224043507634</v>
+        <v>2.557681967508472</v>
       </c>
       <c r="C6">
-        <v>0.5382483605596633</v>
+        <v>0.5795459763949395</v>
       </c>
       <c r="D6">
-        <v>0.1465953035576746</v>
+        <v>0.1473556108182663</v>
       </c>
       <c r="E6">
-        <v>0.9951658163377033</v>
+        <v>0.03569315181814758</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000819560043687324</v>
+        <v>1.313545315174991</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002937085610865364</v>
       </c>
       <c r="I6">
-        <v>1.221269020497687</v>
+        <v>0.004437971041010513</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.8277102825100258</v>
       </c>
       <c r="K6">
-        <v>1.807089653746459</v>
+        <v>0.7932937211521462</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.009548609930874</v>
+        <v>0.2883375246560291</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.338176656194463</v>
+        <v>2.684383473776847</v>
       </c>
       <c r="C7">
-        <v>0.5657384486677586</v>
+        <v>0.6082967346802377</v>
       </c>
       <c r="D7">
-        <v>0.1542539199345754</v>
+        <v>0.1548432777621969</v>
       </c>
       <c r="E7">
-        <v>1.050745097667559</v>
+        <v>0.03692714645196205</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008168027256352155</v>
+        <v>1.354539746968442</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002346774600593848</v>
       </c>
       <c r="I7">
-        <v>1.251864687058386</v>
+        <v>0.003744306326545654</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.8454595742777258</v>
       </c>
       <c r="K7">
-        <v>1.900404599158861</v>
+        <v>0.8075646668734819</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.025759500025686</v>
+        <v>0.3020911440083722</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.635391318496062</v>
+        <v>3.244299355437931</v>
       </c>
       <c r="C8">
-        <v>0.6902115780119118</v>
+        <v>0.7340574779480562</v>
       </c>
       <c r="D8">
-        <v>0.1887212410698424</v>
+        <v>0.1882771197820574</v>
       </c>
       <c r="E8">
-        <v>1.302845220438599</v>
+        <v>0.04252570346496753</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008049092782048355</v>
+        <v>1.545862000139721</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0005647745411174743</v>
       </c>
       <c r="I8">
-        <v>1.39244856410474</v>
+        <v>0.001502454559261679</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.9292674726362691</v>
       </c>
       <c r="K8">
-        <v>2.321540819267994</v>
+        <v>0.8766595113955589</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.103035293558065</v>
+        <v>0.3627909445214925</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.248602841952902</v>
+        <v>4.348054606740902</v>
       </c>
       <c r="C9">
-        <v>0.9498864442368813</v>
+        <v>0.9825157518694425</v>
       </c>
       <c r="D9">
-        <v>0.2596196894219531</v>
+        <v>0.2556749846514066</v>
       </c>
       <c r="E9">
-        <v>1.832592799430728</v>
+        <v>0.05408967398783382</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007823814841801342</v>
+        <v>1.945702822285512</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0004883119236418487</v>
       </c>
       <c r="I9">
-        <v>1.69360953774283</v>
+        <v>0.001206445242028842</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.106663854869566</v>
       </c>
       <c r="K9">
-        <v>3.193391857013353</v>
+        <v>1.025112450720435</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.279967758466967</v>
+        <v>0.482748953921913</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.726922479299219</v>
+        <v>5.164413737876544</v>
       </c>
       <c r="C10">
-        <v>1.154989148610412</v>
+        <v>1.180261596638957</v>
       </c>
       <c r="D10">
-        <v>0.314732982136448</v>
+        <v>0.3066731410153096</v>
       </c>
       <c r="E10">
-        <v>2.256064968850794</v>
+        <v>0.06133496651363135</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000766099839280443</v>
+        <v>2.194526692320295</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002970457962277795</v>
       </c>
       <c r="I10">
-        <v>1.936592098892106</v>
+        <v>0.004321695373402434</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.214670601212958</v>
       </c>
       <c r="K10">
-        <v>3.876082251931791</v>
+        <v>1.10424473494254</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.430847078820904</v>
+        <v>0.5509643965833391</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.953085769308814</v>
+        <v>5.529009099022062</v>
       </c>
       <c r="C11">
-        <v>1.252732116258699</v>
+        <v>1.351531702355089</v>
       </c>
       <c r="D11">
-        <v>0.3407337708390088</v>
+        <v>0.3296818008247726</v>
       </c>
       <c r="E11">
-        <v>2.459762407552304</v>
+        <v>0.05770570744708503</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007586926632419119</v>
+        <v>1.897746243835712</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02178410592456004</v>
       </c>
       <c r="I11">
-        <v>2.053535065251396</v>
+        <v>0.006009096682777937</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.05760223695944</v>
       </c>
       <c r="K11">
-        <v>4.199661299934917</v>
+        <v>0.8939702349611593</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.505497197533742</v>
+        <v>0.4108882821248017</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.040217638765284</v>
+        <v>5.664172966237629</v>
       </c>
       <c r="C12">
-        <v>1.290519564911563</v>
+        <v>1.454839215777895</v>
       </c>
       <c r="D12">
-        <v>0.3507405745968128</v>
+        <v>0.3382246558600741</v>
       </c>
       <c r="E12">
-        <v>2.538868524496536</v>
+        <v>0.06308764804526934</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007558816893909447</v>
+        <v>1.627381401684744</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0602502588210001</v>
       </c>
       <c r="I12">
-        <v>2.098911674829154</v>
+        <v>0.006203142791171956</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.9181872811664675</v>
       </c>
       <c r="K12">
-        <v>4.324457444332609</v>
+        <v>0.7271908915333327</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.53478056929805</v>
+        <v>0.2968341178771396</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.021381436086017</v>
+        <v>5.628822377232893</v>
       </c>
       <c r="C13">
-        <v>1.282344481675182</v>
+        <v>1.514562864605693</v>
       </c>
       <c r="D13">
-        <v>0.3485777909024392</v>
+        <v>0.3359179282369098</v>
       </c>
       <c r="E13">
-        <v>2.521737028713588</v>
+        <v>0.07527220434008264</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007564874583303583</v>
+        <v>1.347540510051942</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1154085878179245</v>
       </c>
       <c r="I13">
-        <v>2.089087337924497</v>
+        <v>0.005503196199057925</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.77700170045091</v>
       </c>
       <c r="K13">
-        <v>4.297472655617753</v>
+        <v>0.5749193444079808</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.528426039061316</v>
+        <v>0.1974173791283533</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.960222690308569</v>
+        <v>5.527008583026884</v>
       </c>
       <c r="C14">
-        <v>1.255824523813715</v>
+        <v>1.537718103460861</v>
       </c>
       <c r="D14">
-        <v>0.341553639681095</v>
+        <v>0.3294057806837714</v>
       </c>
       <c r="E14">
-        <v>2.466228554831176</v>
+        <v>0.08805108780363113</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007584615617395633</v>
+        <v>1.149511697047984</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1642309795502968</v>
       </c>
       <c r="I14">
-        <v>2.057245230565826</v>
+        <v>0.004757665640918951</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6783076919890334</v>
       </c>
       <c r="K14">
-        <v>4.209880480971265</v>
+        <v>0.4769208584186231</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.507885057328309</v>
+        <v>0.1377766657978228</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.922963462352584</v>
+        <v>5.465830844267032</v>
       </c>
       <c r="C15">
-        <v>1.239685590348643</v>
+        <v>1.534531282693877</v>
       </c>
       <c r="D15">
-        <v>0.337272982461684</v>
+        <v>0.3255128459213239</v>
       </c>
       <c r="E15">
-        <v>2.432497285522984</v>
+        <v>0.09132808746809928</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007596697752165642</v>
+        <v>1.094806498974862</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1765151413804205</v>
       </c>
       <c r="I15">
-        <v>2.037888957400924</v>
+        <v>0.00451860609885113</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6516761839297232</v>
       </c>
       <c r="K15">
-        <v>4.156535412755204</v>
+        <v>0.4526577309739537</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.495440219928156</v>
+        <v>0.1241281197231245</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.712335540382298</v>
+        <v>5.119904373600662</v>
       </c>
       <c r="C16">
-        <v>1.148701809945806</v>
+        <v>1.435484614595168</v>
       </c>
       <c r="D16">
-        <v>0.3130546947648867</v>
+        <v>0.303647725912441</v>
       </c>
       <c r="E16">
-        <v>2.243006081094521</v>
+        <v>0.08528702743589633</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007665834195075849</v>
+        <v>1.045664562137944</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1627923562959239</v>
       </c>
       <c r="I16">
-        <v>1.929092515154579</v>
+        <v>0.003215599398895819</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6339194871411564</v>
       </c>
       <c r="K16">
-        <v>3.855229467352558</v>
+        <v>0.4497465102051805</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.426101770348964</v>
+        <v>0.1188756378866529</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.58548616357632</v>
+        <v>4.909481937484145</v>
       </c>
       <c r="C17">
-        <v>1.094112506278975</v>
+        <v>1.347706527368473</v>
       </c>
       <c r="D17">
-        <v>0.2984535741597085</v>
+        <v>0.2904480410619072</v>
       </c>
       <c r="E17">
-        <v>2.129837930709513</v>
+        <v>0.07308852251324183</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007708206625173261</v>
+        <v>1.110096384257304</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245830081594193</v>
       </c>
       <c r="I17">
-        <v>1.864103457405292</v>
+        <v>0.002703770389734572</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6713332470553866</v>
       </c>
       <c r="K17">
-        <v>3.673979783617881</v>
+        <v>0.4971322264668885</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.38520394765365</v>
+        <v>0.1441473161579552</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.513314993171377</v>
+        <v>4.790780251180308</v>
       </c>
       <c r="C18">
-        <v>1.063122717072588</v>
+        <v>1.25861676129233</v>
       </c>
       <c r="D18">
-        <v>0.2901410085584786</v>
+        <v>0.2830610316822089</v>
       </c>
       <c r="E18">
-        <v>2.065760541122756</v>
+        <v>0.05877399145726692</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007732581719450419</v>
+        <v>1.295205515056409</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07168513349839856</v>
       </c>
       <c r="I18">
-        <v>1.827314852985296</v>
+        <v>0.002342039892853975</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7681501791023777</v>
       </c>
       <c r="K18">
-        <v>3.570928080307112</v>
+        <v>0.6058240763000597</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.3622362992364</v>
+        <v>0.2081216815339673</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.4890075519275</v>
+        <v>4.753991087026634</v>
       </c>
       <c r="C19">
-        <v>1.052696535792563</v>
+        <v>1.183181174657477</v>
       </c>
       <c r="D19">
-        <v>0.2873404648983637</v>
+        <v>0.2808214252894317</v>
       </c>
       <c r="E19">
-        <v>2.04422885496821</v>
+        <v>0.05074979150233361</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007740836965852595</v>
+        <v>1.566534261542046</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02670933104901962</v>
       </c>
       <c r="I19">
-        <v>1.814955700644433</v>
+        <v>0.0026058404412721</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9065394460337757</v>
       </c>
       <c r="K19">
-        <v>3.536231546580041</v>
+        <v>0.7626920931576109</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.354551140771463</v>
+        <v>0.3140348366247707</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.598906103601962</v>
+        <v>4.948977094500435</v>
       </c>
       <c r="C20">
-        <v>1.099880445328836</v>
+        <v>1.136516844580399</v>
       </c>
       <c r="D20">
-        <v>0.2999988452569653</v>
+        <v>0.2931205016434859</v>
       </c>
       <c r="E20">
-        <v>2.141777431986384</v>
+        <v>0.05900527541468747</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007703696032632656</v>
+        <v>2.09690702102742</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002091863905354874</v>
       </c>
       <c r="I20">
-        <v>1.870959303750993</v>
+        <v>0.003950242346096644</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.170011840712959</v>
       </c>
       <c r="K20">
-        <v>3.693147487206488</v>
+        <v>1.063019634807787</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.38949907541064</v>
+        <v>0.532859037107059</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.978143818796639</v>
+        <v>5.579909404263333</v>
       </c>
       <c r="C21">
-        <v>1.263591852606964</v>
+        <v>1.27614456524401</v>
       </c>
       <c r="D21">
-        <v>0.343612196647527</v>
+        <v>0.3329961223893605</v>
       </c>
       <c r="E21">
-        <v>2.482475824302398</v>
+        <v>0.06736746145998396</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007578819365566613</v>
+        <v>2.370443820992989</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004897430865155372</v>
       </c>
       <c r="I21">
-        <v>2.066566848171348</v>
+        <v>0.007529543282391415</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.294484893939483</v>
       </c>
       <c r="K21">
-        <v>4.23554350373746</v>
+        <v>1.173539859842379</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.513889560550098</v>
+        <v>0.6186762741817233</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.234830128434282</v>
+        <v>5.994303080088685</v>
       </c>
       <c r="C22">
-        <v>1.375183052059583</v>
+        <v>1.369776535065114</v>
       </c>
       <c r="D22">
-        <v>0.3730700006623522</v>
+        <v>0.3594774143891613</v>
       </c>
       <c r="E22">
-        <v>2.716867113681005</v>
+        <v>0.07229298753906122</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007496817073991634</v>
+        <v>2.539999399068193</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.007363079339821221</v>
       </c>
       <c r="I22">
-        <v>2.200881400505693</v>
+        <v>0.01037737903560831</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.371217518436652</v>
       </c>
       <c r="K22">
-        <v>4.603463709542439</v>
+        <v>1.239889412393296</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.601193116373651</v>
+        <v>0.6639799171785938</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.09692620095376</v>
+        <v>5.77312196188376</v>
       </c>
       <c r="C23">
-        <v>1.315152188259788</v>
+        <v>1.316496063408238</v>
       </c>
       <c r="D23">
-        <v>0.3572502369904669</v>
+        <v>0.3453150468677961</v>
       </c>
       <c r="E23">
-        <v>2.590546846839302</v>
+        <v>0.06977538780697934</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000754064150609471</v>
+        <v>2.460662233266333</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006004015607932622</v>
       </c>
       <c r="I23">
-        <v>2.128537639570311</v>
+        <v>0.008527571435790193</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.335881423563336</v>
       </c>
       <c r="K23">
-        <v>4.405719283060535</v>
+        <v>1.211706331955469</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.553990715639657</v>
+        <v>0.6394600295530068</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.592836611906364</v>
+        <v>4.939729463734068</v>
       </c>
       <c r="C24">
-        <v>1.097271541717248</v>
+        <v>1.122913888351576</v>
       </c>
       <c r="D24">
-        <v>0.2992999753502374</v>
+        <v>0.2925478285637979</v>
       </c>
       <c r="E24">
-        <v>2.136376544414773</v>
+        <v>0.06035237820606199</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007705735222751488</v>
+        <v>2.147165313753021</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002060564645978369</v>
       </c>
       <c r="I24">
-        <v>1.86785799878794</v>
+        <v>0.003528563238040405</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.195517321362502</v>
       </c>
       <c r="K24">
-        <v>3.684478211363341</v>
+        <v>1.095176596347883</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.387555561431412</v>
+        <v>0.5479175243570467</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.078585521977175</v>
+        <v>4.048325918502144</v>
       </c>
       <c r="C25">
-        <v>0.8775161855387239</v>
+        <v>0.9191937518957332</v>
       </c>
       <c r="D25">
-        <v>0.2399901216012239</v>
+        <v>0.2371869478755855</v>
       </c>
       <c r="E25">
-        <v>1.684315824824878</v>
+        <v>0.05071288586204403</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007884110307518763</v>
+        <v>1.819181128565162</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.581400377234317E-05</v>
       </c>
       <c r="I25">
-        <v>1.608826136943591</v>
+        <v>0.001152264573351047</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.049348837997201</v>
       </c>
       <c r="K25">
-        <v>2.951279279125345</v>
+        <v>0.9735127941172124</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.228874334768221</v>
+        <v>0.450554358163032</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.396419992639267</v>
+        <v>3.401507597253499</v>
       </c>
       <c r="C2">
-        <v>0.7648404385784602</v>
+        <v>0.8656513618500981</v>
       </c>
       <c r="D2">
-        <v>0.1974542783293742</v>
+        <v>0.1976030984668284</v>
       </c>
       <c r="E2">
-        <v>0.04420531461496857</v>
+        <v>0.04024377035297988</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.611535551753036</v>
+        <v>1.208325825564913</v>
       </c>
       <c r="H2">
-        <v>0.0002932929804437823</v>
+        <v>0.000164293669818516</v>
       </c>
       <c r="I2">
-        <v>0.0008641050443261022</v>
+        <v>0.0007185716491937555</v>
       </c>
       <c r="J2">
-        <v>0.9590246226714498</v>
+        <v>0.8069304722667709</v>
       </c>
       <c r="K2">
-        <v>0.9041480184117674</v>
+        <v>0.6548927453112299</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2974233632931274</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2008622579175565</v>
       </c>
       <c r="N2">
-        <v>0.3789602337275397</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3943819965964224</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.955941293028673</v>
+        <v>2.961785272050236</v>
       </c>
       <c r="C3">
-        <v>0.6660285778181958</v>
+        <v>0.7493898112114721</v>
       </c>
       <c r="D3">
-        <v>0.1709925214756112</v>
+        <v>0.1712517415529646</v>
       </c>
       <c r="E3">
-        <v>0.03974516820270058</v>
+        <v>0.03674919941385113</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.458038707544716</v>
+        <v>1.110836362602285</v>
       </c>
       <c r="H3">
-        <v>0.001310476172792896</v>
+        <v>0.0008877071605730702</v>
       </c>
       <c r="I3">
-        <v>0.00216045223948802</v>
+        <v>0.001509289271213632</v>
       </c>
       <c r="J3">
-        <v>0.8915030103961783</v>
+        <v>0.7605546647886143</v>
       </c>
       <c r="K3">
-        <v>0.8481295749386959</v>
+        <v>0.6307621252970037</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2953632516753188</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1855429835453748</v>
       </c>
       <c r="N3">
-        <v>0.3311981943004838</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3454231385453284</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.68593691188363</v>
+        <v>2.691838700151152</v>
       </c>
       <c r="C4">
-        <v>0.6060347400347155</v>
+        <v>0.6787830788392455</v>
       </c>
       <c r="D4">
-        <v>0.1549371171110749</v>
+        <v>0.1552434512340284</v>
       </c>
       <c r="E4">
-        <v>0.03704111926865128</v>
+        <v>0.03461853001128778</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.36453267638467</v>
+        <v>1.051536187647201</v>
       </c>
       <c r="H4">
-        <v>0.00232994543595022</v>
+        <v>0.001644334700311223</v>
       </c>
       <c r="I4">
-        <v>0.003471289089831409</v>
+        <v>0.00238398556768038</v>
       </c>
       <c r="J4">
-        <v>0.8505006576760934</v>
+        <v>0.7319326356321199</v>
       </c>
       <c r="K4">
-        <v>0.8138981732374333</v>
+        <v>0.6159034689571214</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2937957314039465</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1769585737101949</v>
       </c>
       <c r="N4">
-        <v>0.3020023964405993</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3154656933392346</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.575962821729547</v>
+        <v>2.581795798104508</v>
       </c>
       <c r="C5">
-        <v>0.5825026317131403</v>
+        <v>0.6509244476272613</v>
       </c>
       <c r="D5">
-        <v>0.1484349789120927</v>
+        <v>0.1487563529655773</v>
       </c>
       <c r="E5">
-        <v>0.03591571127134241</v>
+        <v>0.03373106903007006</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.323757000931295</v>
+        <v>1.025338645976589</v>
       </c>
       <c r="H5">
-        <v>0.002842213092702384</v>
+        <v>0.002029233129723584</v>
       </c>
       <c r="I5">
-        <v>0.004205497223730426</v>
+        <v>0.002921801889922193</v>
       </c>
       <c r="J5">
-        <v>0.8324550814679128</v>
+        <v>0.7190983321733455</v>
       </c>
       <c r="K5">
-        <v>0.79814504604078</v>
+        <v>0.6085109010832213</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2925107357849157</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1732407026308742</v>
       </c>
       <c r="N5">
-        <v>0.2902045916839882</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.303343050765946</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.557681967508472</v>
+        <v>2.563497192508692</v>
       </c>
       <c r="C6">
-        <v>0.5795459763949395</v>
+        <v>0.6472157022238036</v>
       </c>
       <c r="D6">
-        <v>0.1473556108182663</v>
+        <v>0.1476795799647164</v>
       </c>
       <c r="E6">
-        <v>0.03569315181814758</v>
+        <v>0.03355811061276626</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.313545315174991</v>
+        <v>1.018375302800422</v>
       </c>
       <c r="H6">
-        <v>0.002937085610865364</v>
+        <v>0.002100660437399093</v>
       </c>
       <c r="I6">
-        <v>0.004437971041010513</v>
+        <v>0.003134552926671752</v>
       </c>
       <c r="J6">
-        <v>0.8277102825100258</v>
+        <v>0.7155870380735649</v>
       </c>
       <c r="K6">
-        <v>0.7932937211521462</v>
+        <v>0.6056717478421092</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2915986741397631</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1721214061746252</v>
       </c>
       <c r="N6">
-        <v>0.2883375246560291</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3014106600013093</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.684383473776847</v>
+        <v>2.690247046125876</v>
       </c>
       <c r="C7">
-        <v>0.6082967346802377</v>
+        <v>0.6796872511156096</v>
       </c>
       <c r="D7">
-        <v>0.1548432777621969</v>
+        <v>0.155147053782386</v>
       </c>
       <c r="E7">
-        <v>0.03692714645196205</v>
+        <v>0.03453669451914632</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.354539746968442</v>
+        <v>1.046895540597831</v>
       </c>
       <c r="H7">
-        <v>0.002346774600593848</v>
+        <v>0.001661036846993813</v>
       </c>
       <c r="I7">
-        <v>0.003744306326545654</v>
+        <v>0.002698712781951329</v>
       </c>
       <c r="J7">
-        <v>0.8454595742777258</v>
+        <v>0.718223369345921</v>
       </c>
       <c r="K7">
-        <v>0.8075646668734819</v>
+        <v>0.6093425777065562</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2910348847210926</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1748035703483346</v>
       </c>
       <c r="N7">
-        <v>0.3020911440083722</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3153857444876138</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.244299355437931</v>
+        <v>3.249597054192918</v>
       </c>
       <c r="C8">
-        <v>0.7340574779480562</v>
+        <v>0.82465305220191</v>
       </c>
       <c r="D8">
-        <v>0.1882771197820574</v>
+        <v>0.1884559297675708</v>
       </c>
       <c r="E8">
-        <v>0.04252570346496753</v>
+        <v>0.03894351846764321</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.545862000139721</v>
+        <v>1.174780548579776</v>
       </c>
       <c r="H8">
-        <v>0.0005647745411174743</v>
+        <v>0.0003566472803500087</v>
       </c>
       <c r="I8">
-        <v>0.001502454559261679</v>
+        <v>0.001269878000243807</v>
       </c>
       <c r="J8">
-        <v>0.9292674726362691</v>
+        <v>0.7538380617934024</v>
       </c>
       <c r="K8">
-        <v>0.8766595113955589</v>
+        <v>0.6340372816357487</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2917136835277248</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1910537138717956</v>
       </c>
       <c r="N8">
-        <v>0.3627909445214925</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3773162337764262</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.348054606740902</v>
+        <v>4.348588533277848</v>
       </c>
       <c r="C9">
-        <v>0.9825157518694425</v>
+        <v>1.116004083115342</v>
       </c>
       <c r="D9">
-        <v>0.2556749846514066</v>
+        <v>0.2554163065253618</v>
       </c>
       <c r="E9">
-        <v>0.05408967398783382</v>
+        <v>0.04792074513321865</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.945702822285512</v>
+        <v>1.433743795364762</v>
       </c>
       <c r="H9">
-        <v>0.0004883119236418487</v>
+        <v>0.0004755467364001564</v>
       </c>
       <c r="I9">
-        <v>0.001206445242028842</v>
+        <v>0.001366260016856913</v>
       </c>
       <c r="J9">
-        <v>1.106663854869566</v>
+        <v>0.8644075244253315</v>
       </c>
       <c r="K9">
-        <v>1.025112450720435</v>
+        <v>0.6977293465127019</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2969585743332246</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2348887121202239</v>
       </c>
       <c r="N9">
-        <v>0.482748953921913</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4999463312045265</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.164413737876544</v>
+        <v>5.158181662832078</v>
       </c>
       <c r="C10">
-        <v>1.180261596638957</v>
+        <v>1.336192583815375</v>
       </c>
       <c r="D10">
-        <v>0.3066731410153096</v>
+        <v>0.3058899869327973</v>
       </c>
       <c r="E10">
-        <v>0.06133496651363135</v>
+        <v>0.05365665077656212</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.194526692320295</v>
+        <v>1.61148977662998</v>
       </c>
       <c r="H10">
-        <v>0.002970457962277795</v>
+        <v>0.00254991589947684</v>
       </c>
       <c r="I10">
-        <v>0.004321695373402434</v>
+        <v>0.003938141058577926</v>
       </c>
       <c r="J10">
-        <v>1.214670601212958</v>
+        <v>0.8730653453559967</v>
       </c>
       <c r="K10">
-        <v>1.10424473494254</v>
+        <v>0.7137774450365342</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2882965285264874</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2592538862046254</v>
       </c>
       <c r="N10">
-        <v>0.5509643965833391</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5684380863789613</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.529009099022062</v>
+        <v>5.520278368929951</v>
       </c>
       <c r="C11">
-        <v>1.351531702355089</v>
+        <v>1.486012319240842</v>
       </c>
       <c r="D11">
-        <v>0.3296818008247726</v>
+        <v>0.3286946727068596</v>
       </c>
       <c r="E11">
-        <v>0.05770570744708503</v>
+        <v>0.05333123840978748</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.897746243835712</v>
+        <v>1.440380652634275</v>
       </c>
       <c r="H11">
-        <v>0.02178410592456004</v>
+        <v>0.0212318819909072</v>
       </c>
       <c r="I11">
-        <v>0.006009096682777937</v>
+        <v>0.005444345438944787</v>
       </c>
       <c r="J11">
-        <v>1.05760223695944</v>
+        <v>0.6640276757823642</v>
       </c>
       <c r="K11">
-        <v>0.8939702349611593</v>
+        <v>0.5556845144579583</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2267445975537257</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.204027927954904</v>
       </c>
       <c r="N11">
-        <v>0.4108882821248017</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4225842820531795</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.664172966237629</v>
+        <v>5.655130468694551</v>
       </c>
       <c r="C12">
-        <v>1.454839215777895</v>
+        <v>1.568673147195739</v>
       </c>
       <c r="D12">
-        <v>0.3382246558600741</v>
+        <v>0.3372052656670093</v>
       </c>
       <c r="E12">
-        <v>0.06308764804526934</v>
+        <v>0.06090060542373443</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.627381401684744</v>
+        <v>1.267110934317316</v>
       </c>
       <c r="H12">
-        <v>0.0602502588210001</v>
+        <v>0.05970870305950626</v>
       </c>
       <c r="I12">
-        <v>0.006203142791171956</v>
+        <v>0.005600610147103779</v>
       </c>
       <c r="J12">
-        <v>0.9181872811664675</v>
+        <v>0.5390706614527261</v>
       </c>
       <c r="K12">
-        <v>0.7271908915333327</v>
+        <v>0.4462057606887626</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1872371500272401</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1620348006023491</v>
       </c>
       <c r="N12">
-        <v>0.2968341178771396</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3047908655132403</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.628822377232893</v>
+        <v>5.621405319593691</v>
       </c>
       <c r="C13">
-        <v>1.514562864605693</v>
+        <v>1.611361886680243</v>
       </c>
       <c r="D13">
-        <v>0.3359179282369098</v>
+        <v>0.3350240511250746</v>
       </c>
       <c r="E13">
-        <v>0.07527220434008264</v>
+        <v>0.07489619922377599</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.347540510051942</v>
+        <v>1.066265095020611</v>
       </c>
       <c r="H13">
-        <v>0.1154085878179245</v>
+        <v>0.1149945858122834</v>
       </c>
       <c r="I13">
-        <v>0.005503196199057925</v>
+        <v>0.005084855661319665</v>
       </c>
       <c r="J13">
-        <v>0.77700170045091</v>
+        <v>0.4692495384997244</v>
       </c>
       <c r="K13">
-        <v>0.5749193444079808</v>
+        <v>0.3610413944077067</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1586465832559902</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1263288090037591</v>
       </c>
       <c r="N13">
-        <v>0.1974173791283533</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2028897497055269</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.527008583026884</v>
+        <v>5.52147350867051</v>
       </c>
       <c r="C14">
-        <v>1.537718103460861</v>
+        <v>1.624095273143382</v>
       </c>
       <c r="D14">
-        <v>0.3294057806837714</v>
+        <v>0.3286632431095882</v>
       </c>
       <c r="E14">
-        <v>0.08805108780363113</v>
+        <v>0.08879037951415469</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.149511697047984</v>
+        <v>0.9160890761729803</v>
       </c>
       <c r="H14">
-        <v>0.1642309795502968</v>
+        <v>0.163937989820468</v>
       </c>
       <c r="I14">
-        <v>0.004757665640918951</v>
+        <v>0.004554446270198298</v>
       </c>
       <c r="J14">
-        <v>0.6783076919890334</v>
+        <v>0.4391945619293978</v>
       </c>
       <c r="K14">
-        <v>0.4769208584186231</v>
+        <v>0.311371989035603</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1427494642249556</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1042318362584673</v>
       </c>
       <c r="N14">
-        <v>0.1377766657978228</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1419607147107698</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.465830844267032</v>
+        <v>5.461125829140258</v>
       </c>
       <c r="C15">
-        <v>1.534531282693877</v>
+        <v>1.619171524361377</v>
       </c>
       <c r="D15">
-        <v>0.3255128459213239</v>
+        <v>0.3248381082546956</v>
       </c>
       <c r="E15">
-        <v>0.09132808746809928</v>
+        <v>0.09239831676405785</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.094806498974862</v>
+        <v>0.8719011830797712</v>
       </c>
       <c r="H15">
-        <v>0.1765151413804205</v>
+        <v>0.1762711752576962</v>
       </c>
       <c r="I15">
-        <v>0.00451860609885113</v>
+        <v>0.004425346705679623</v>
       </c>
       <c r="J15">
-        <v>0.6516761839297232</v>
+        <v>0.4381518361357166</v>
       </c>
       <c r="K15">
-        <v>0.4526577309739537</v>
+        <v>0.3009528197170894</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1397130125715016</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09906078013926845</v>
       </c>
       <c r="N15">
-        <v>0.1241281197231245</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1281084119358198</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.119904373600662</v>
+        <v>5.118565360796026</v>
       </c>
       <c r="C16">
-        <v>1.435484614595168</v>
+        <v>1.527390174092091</v>
       </c>
       <c r="D16">
-        <v>0.303647725912441</v>
+        <v>0.3032499113522391</v>
       </c>
       <c r="E16">
-        <v>0.08528702743589633</v>
+        <v>0.08715883953558645</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.045664562137944</v>
+        <v>0.8145788970900441</v>
       </c>
       <c r="H16">
-        <v>0.1627923562959239</v>
+        <v>0.1627202939069008</v>
       </c>
       <c r="I16">
-        <v>0.003215599398895819</v>
+        <v>0.003442785328721776</v>
       </c>
       <c r="J16">
-        <v>0.6339194871411564</v>
+        <v>0.4993519833090403</v>
       </c>
       <c r="K16">
-        <v>0.4497465102051805</v>
+        <v>0.3177945199443535</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1483000338353477</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1011875477275268</v>
       </c>
       <c r="N16">
-        <v>0.1188756378866529</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1237056201159987</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.909481937484145</v>
+        <v>4.909570165542448</v>
       </c>
       <c r="C17">
-        <v>1.347706527368473</v>
+        <v>1.448182345643261</v>
       </c>
       <c r="D17">
-        <v>0.2904480410619072</v>
+        <v>0.2901673290302824</v>
       </c>
       <c r="E17">
-        <v>0.07308852251324183</v>
+        <v>0.07480668450602224</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.110096384257304</v>
+        <v>0.8508474137005919</v>
       </c>
       <c r="H17">
-        <v>0.1245830081594193</v>
+        <v>0.1245629234672379</v>
       </c>
       <c r="I17">
-        <v>0.002703770389734572</v>
+        <v>0.003041236465181285</v>
       </c>
       <c r="J17">
-        <v>0.6713332470553866</v>
+        <v>0.5586017364237108</v>
       </c>
       <c r="K17">
-        <v>0.4971322264668885</v>
+        <v>0.3562513445119002</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1637616034922331</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1135876698205074</v>
       </c>
       <c r="N17">
-        <v>0.1441473161579552</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1503363448753063</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.790780251180308</v>
+        <v>4.791129348110019</v>
       </c>
       <c r="C18">
-        <v>1.25861676129233</v>
+        <v>1.372348934328215</v>
       </c>
       <c r="D18">
-        <v>0.2830610316822089</v>
+        <v>0.2827989858472506</v>
       </c>
       <c r="E18">
-        <v>0.05877399145726692</v>
+        <v>0.05931542038964288</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.295205515056409</v>
+        <v>0.9763314297645138</v>
       </c>
       <c r="H18">
-        <v>0.07168513349839856</v>
+        <v>0.07167213923292337</v>
       </c>
       <c r="I18">
-        <v>0.002342039892853975</v>
+        <v>0.002648985452019303</v>
       </c>
       <c r="J18">
-        <v>0.7681501791023777</v>
+        <v>0.6416288732827979</v>
       </c>
       <c r="K18">
-        <v>0.6058240763000597</v>
+        <v>0.4287419508469767</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1911484303801387</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1401486153980365</v>
       </c>
       <c r="N18">
-        <v>0.2081216815339673</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.216707784529774</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.753991087026634</v>
+        <v>4.753687875270828</v>
       </c>
       <c r="C19">
-        <v>1.183181174657477</v>
+        <v>1.312757232432261</v>
       </c>
       <c r="D19">
-        <v>0.2808214252894317</v>
+        <v>0.2805031214670066</v>
       </c>
       <c r="E19">
-        <v>0.05074979150233361</v>
+        <v>0.04895691779721023</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.566534261542046</v>
+        <v>1.16202227724429</v>
       </c>
       <c r="H19">
-        <v>0.02670933104901962</v>
+        <v>0.02667278691703956</v>
       </c>
       <c r="I19">
-        <v>0.0026058404412721</v>
+        <v>0.002898961556900836</v>
       </c>
       <c r="J19">
-        <v>0.9065394460337757</v>
+        <v>0.7425273693869201</v>
       </c>
       <c r="K19">
-        <v>0.7626920931576109</v>
+        <v>0.5276997414196103</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.227639111645157</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1778950105984762</v>
       </c>
       <c r="N19">
-        <v>0.3140348366247707</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3260333884785638</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.948977094500435</v>
+        <v>4.945112712231605</v>
       </c>
       <c r="C20">
-        <v>1.136516844580399</v>
+        <v>1.290840299296917</v>
       </c>
       <c r="D20">
-        <v>0.2931205016434859</v>
+        <v>0.2925208625274536</v>
       </c>
       <c r="E20">
-        <v>0.05900527541468747</v>
+        <v>0.05186831183236151</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.09690702102742</v>
+        <v>1.530263623516561</v>
       </c>
       <c r="H20">
-        <v>0.002091863905354874</v>
+        <v>0.001840315505463153</v>
       </c>
       <c r="I20">
-        <v>0.003950242346096644</v>
+        <v>0.003968229040451909</v>
       </c>
       <c r="J20">
-        <v>1.170011840712959</v>
+        <v>0.8927385561566723</v>
       </c>
       <c r="K20">
-        <v>1.063019634807787</v>
+        <v>0.70287090271907</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2881757783149155</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2500332869631521</v>
       </c>
       <c r="N20">
-        <v>0.532859037107059</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.550666504948353</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.579909404263333</v>
+        <v>5.567851293846161</v>
       </c>
       <c r="C21">
-        <v>1.27614456524401</v>
+        <v>1.426240939930665</v>
       </c>
       <c r="D21">
-        <v>0.3329961223893605</v>
+        <v>0.3317638518381045</v>
       </c>
       <c r="E21">
-        <v>0.06736746145998396</v>
+        <v>0.05817909097053686</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.370443820992989</v>
+        <v>1.781924203290316</v>
       </c>
       <c r="H21">
-        <v>0.004897430865155372</v>
+        <v>0.003985197934075257</v>
       </c>
       <c r="I21">
-        <v>0.007529543282391415</v>
+        <v>0.006595305237000915</v>
       </c>
       <c r="J21">
-        <v>1.294484893939483</v>
+        <v>0.7582706698920845</v>
       </c>
       <c r="K21">
-        <v>1.173539859842379</v>
+        <v>0.708837074609896</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.279363235273216</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2670288496312878</v>
       </c>
       <c r="N21">
-        <v>0.6186762741817233</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.634791401401074</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.994303080088685</v>
+        <v>5.975858747261441</v>
       </c>
       <c r="C22">
-        <v>1.369776535065114</v>
+        <v>1.51392028907776</v>
       </c>
       <c r="D22">
-        <v>0.3594774143891613</v>
+        <v>0.357760518248341</v>
       </c>
       <c r="E22">
-        <v>0.07229298753906122</v>
+        <v>0.06198996246302091</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.539999399068193</v>
+        <v>1.948678027910717</v>
       </c>
       <c r="H22">
-        <v>0.007363079339821221</v>
+        <v>0.005841726115504708</v>
       </c>
       <c r="I22">
-        <v>0.01037737903560831</v>
+        <v>0.008475798680001034</v>
       </c>
       <c r="J22">
-        <v>1.371217518436652</v>
+        <v>0.6651168046815741</v>
       </c>
       <c r="K22">
-        <v>1.239889412393296</v>
+        <v>0.7065106444138891</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2715053158179046</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2760718381326939</v>
       </c>
       <c r="N22">
-        <v>0.6639799171785938</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6783578478839019</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.77312196188376</v>
+        <v>5.758322870371728</v>
       </c>
       <c r="C23">
-        <v>1.316496063408238</v>
+        <v>1.467371461742573</v>
       </c>
       <c r="D23">
-        <v>0.3453150468677961</v>
+        <v>0.3438764871573881</v>
       </c>
       <c r="E23">
-        <v>0.06977538780697934</v>
+        <v>0.0600150113259712</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.460662233266333</v>
+        <v>1.859383681651678</v>
       </c>
       <c r="H23">
-        <v>0.006004015607932622</v>
+        <v>0.004834471271981666</v>
       </c>
       <c r="I23">
-        <v>0.008527571435790193</v>
+        <v>0.007115875798628046</v>
       </c>
       <c r="J23">
-        <v>1.335881423563336</v>
+        <v>0.7386365053074826</v>
       </c>
       <c r="K23">
-        <v>1.211706331955469</v>
+        <v>0.7174848440335495</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2790370376591866</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2751806954962674</v>
       </c>
       <c r="N23">
-        <v>0.6394600295530068</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6551911597035769</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.939729463734068</v>
+        <v>4.935749942104906</v>
       </c>
       <c r="C24">
-        <v>1.122913888351576</v>
+        <v>1.278680334527451</v>
       </c>
       <c r="D24">
-        <v>0.2925478285637979</v>
+        <v>0.2919394689291153</v>
       </c>
       <c r="E24">
-        <v>0.06035237820606199</v>
+        <v>0.05275350453625904</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.147165313753021</v>
+        <v>1.564903317398489</v>
       </c>
       <c r="H24">
-        <v>0.002060564645978369</v>
+        <v>0.001797412976066948</v>
       </c>
       <c r="I24">
-        <v>0.003528563238040405</v>
+        <v>0.003432877969672177</v>
       </c>
       <c r="J24">
-        <v>1.195517321362502</v>
+        <v>0.9123834922889671</v>
       </c>
       <c r="K24">
-        <v>1.095176596347883</v>
+        <v>0.7239576598076098</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2959575984930183</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2580648723510492</v>
       </c>
       <c r="N24">
-        <v>0.5479175243570467</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5662457940676688</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.048325918502144</v>
+        <v>4.050743719765023</v>
       </c>
       <c r="C25">
-        <v>0.9191937518957332</v>
+        <v>1.042657456207962</v>
       </c>
       <c r="D25">
-        <v>0.2371869478755855</v>
+        <v>0.2370848774487797</v>
       </c>
       <c r="E25">
-        <v>0.05071288586204403</v>
+        <v>0.04532880358456737</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.819181128565162</v>
+        <v>1.345805794360302</v>
       </c>
       <c r="H25">
-        <v>9.581400377234317E-05</v>
+        <v>0.0001205136713531285</v>
       </c>
       <c r="I25">
-        <v>0.001152264573351047</v>
+        <v>0.001429194866577888</v>
       </c>
       <c r="J25">
-        <v>1.049348837997201</v>
+        <v>0.8417328099094732</v>
       </c>
       <c r="K25">
-        <v>0.9735127941172124</v>
+        <v>0.6756444032394526</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2939713311283043</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2204705161542293</v>
       </c>
       <c r="N25">
-        <v>0.450554358163032</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4672131566444762</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
